--- a/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
+++ b/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dbf012d0e32e060/Attensity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaguilar\Documents\GitHub\automation-test-framework\Attensity_REST_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t xml:space="preserve">O_API_TEST_DeleteAccount_spec.js </t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -1191,6 +1188,9 @@
   </si>
   <si>
     <t>Licensing Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO_API_TEST_DeleteAccount_spec.js </t>
   </si>
 </sst>
 </file>
@@ -1246,13 +1246,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,11 +1553,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -1607,9 +1607,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1618,219 +1618,219 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1853,126 +1853,126 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>46</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>58</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>65</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>69</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>70</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1982,11 +1982,11 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -2009,298 +2009,298 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
         <v>73</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>74</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>77</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>79</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>80</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>84</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>87</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>88</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" t="s">
         <v>89</v>
       </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>90</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>92</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
         <v>93</v>
       </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>94</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
         <v>95</v>
       </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>97</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>98</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
         <v>99</v>
       </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>100</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>101</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>102</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>104</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>105</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>106</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" t="s">
         <v>107</v>
       </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>109</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>110</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
         <v>111</v>
       </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>112</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
         <v>113</v>
       </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>114</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>115</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
         <v>116</v>
       </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>117</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
         <v>118</v>
       </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>119</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
         <v>120</v>
       </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>121</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
         <v>122</v>
       </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>123</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
         <v>124</v>
       </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>125</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
         <v>126</v>
       </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>127</v>
-      </c>
-      <c r="E49" t="s">
-        <v>128</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2310,11 +2310,11 @@
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="D50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -2337,372 +2337,372 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3"/>
       <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
         <v>130</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="D53" t="s">
         <v>131</v>
       </c>
-      <c r="F52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="D54" t="s">
         <v>132</v>
       </c>
-      <c r="E53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>133</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
         <v>134</v>
       </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="D55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="D56" t="s">
         <v>135</v>
       </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>136</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="D57" t="s">
         <v>137</v>
       </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>138</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="D58" t="s">
         <v>139</v>
       </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>140</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="D59" t="s">
         <v>141</v>
       </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>142</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="D60" t="s">
         <v>143</v>
       </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>144</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="D61" t="s">
         <v>145</v>
       </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>146</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="D62" t="s">
         <v>147</v>
       </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>148</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="D63" t="s">
         <v>149</v>
       </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>150</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="D64" t="s">
         <v>151</v>
       </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>152</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" t="s">
         <v>153</v>
       </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="D65" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" t="s">
         <v>154</v>
       </c>
-      <c r="F65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="D66" t="s">
-        <v>152</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="D67" t="s">
         <v>155</v>
       </c>
-      <c r="F66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>156</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="D68" t="s">
         <v>157</v>
       </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>158</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="D69" t="s">
         <v>159</v>
       </c>
-      <c r="F68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>160</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="D70" t="s">
         <v>161</v>
       </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>162</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="D71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" t="s">
         <v>163</v>
       </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="D71" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="D72" t="s">
         <v>164</v>
       </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>165</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="D73" t="s">
         <v>166</v>
       </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>167</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="D74" t="s">
         <v>168</v>
       </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>169</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" t="s">
         <v>170</v>
       </c>
-      <c r="F74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="D75" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="D76" t="s">
         <v>171</v>
       </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>172</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="D77" t="s">
         <v>173</v>
       </c>
-      <c r="F76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>174</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="D78" t="s">
         <v>175</v>
       </c>
-      <c r="F77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>176</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="D79" t="s">
         <v>177</v>
       </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>178</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="D80" t="s">
         <v>179</v>
       </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>180</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="D81" t="s">
         <v>181</v>
       </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>182</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="D82" t="s">
         <v>183</v>
       </c>
-      <c r="F81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>184</v>
-      </c>
-      <c r="E82" t="s">
-        <v>185</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -2712,11 +2712,11 @@
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="D83" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -2739,240 +2739,240 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
+      <c r="A85" s="3"/>
       <c r="B85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" t="s">
         <v>187</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>188</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>189</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" t="s">
         <v>190</v>
       </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>191</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" t="s">
+        <v>189</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" t="s">
         <v>192</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C87" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" t="s">
         <v>189</v>
       </c>
-      <c r="E86" t="s">
-        <v>190</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" t="s">
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" t="s">
+        <v>197</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="B89" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" t="s">
-        <v>190</v>
-      </c>
-      <c r="F87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" t="s">
-        <v>195</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D90" t="s">
         <v>196</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E90" t="s">
         <v>197</v>
       </c>
-      <c r="E88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" t="s">
-        <v>199</v>
-      </c>
-      <c r="C89" t="s">
-        <v>200</v>
-      </c>
-      <c r="D89" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" t="s">
-        <v>198</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" t="s">
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" t="s">
         <v>201</v>
       </c>
-      <c r="C90" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" t="s">
-        <v>198</v>
-      </c>
-      <c r="F90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>202</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>203</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>204</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" t="s">
         <v>205</v>
       </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>206</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>207</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>208</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3"/>
+      <c r="B93" t="s">
         <v>209</v>
       </c>
-      <c r="F92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" t="s">
         <v>210</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
+        <v>211</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" t="s">
         <v>203</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E94" t="s">
+        <v>204</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>214</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" t="s">
+        <v>210</v>
+      </c>
+      <c r="E96" t="s">
         <v>211</v>
       </c>
-      <c r="E93" t="s">
-        <v>212</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" t="s">
-        <v>213</v>
-      </c>
-      <c r="C94" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" t="s">
-        <v>204</v>
-      </c>
-      <c r="E94" t="s">
-        <v>205</v>
-      </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" t="s">
-        <v>214</v>
-      </c>
-      <c r="E95" t="s">
-        <v>215</v>
-      </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="F96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
         <v>217</v>
       </c>
-      <c r="D96" t="s">
-        <v>211</v>
-      </c>
-      <c r="E96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>218</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>219</v>
-      </c>
-      <c r="F97" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="D98" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -2995,108 +2995,108 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
+      <c r="A100" s="3"/>
       <c r="D100" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" t="s">
         <v>222</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3"/>
+      <c r="D101" t="s">
         <v>223</v>
       </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>224</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+      <c r="D102" t="s">
         <v>225</v>
       </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>226</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="D103" t="s">
         <v>227</v>
       </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>228</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="D104" t="s">
         <v>229</v>
       </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>230</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="D105" t="s">
         <v>231</v>
       </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>232</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="D106" t="s">
         <v>233</v>
       </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>234</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="D107" t="s">
         <v>235</v>
       </c>
-      <c r="F106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>236</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
+      <c r="D108" t="s">
         <v>237</v>
       </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>238</v>
-      </c>
-      <c r="E108" t="s">
-        <v>239</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3106,11 +3106,11 @@
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="D109" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -3133,254 +3133,254 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3"/>
       <c r="D111" t="s">
+        <v>240</v>
+      </c>
+      <c r="E111" t="s">
         <v>241</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3"/>
+      <c r="D112" t="s">
         <v>242</v>
       </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>243</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
+      <c r="D113" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="D114" t="s">
         <v>244</v>
       </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="D113" t="s">
-        <v>243</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
+        <v>245</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3"/>
+      <c r="D115" t="s">
         <v>244</v>
       </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="D114" t="s">
+      <c r="E115" t="s">
         <v>245</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="D116" t="s">
+        <v>244</v>
+      </c>
+      <c r="E116" t="s">
+        <v>245</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3"/>
+      <c r="D117" t="s">
         <v>246</v>
       </c>
-      <c r="F114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="D115" t="s">
-        <v>245</v>
-      </c>
-      <c r="E115" t="s">
-        <v>246</v>
-      </c>
-      <c r="F115" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="D116" t="s">
-        <v>245</v>
-      </c>
-      <c r="E116" t="s">
-        <v>246</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>247</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+      <c r="D118" t="s">
         <v>248</v>
       </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>249</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+      <c r="D119" t="s">
+        <v>248</v>
+      </c>
+      <c r="E119" t="s">
+        <v>249</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3"/>
+      <c r="D120" t="s">
         <v>250</v>
       </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="D119" t="s">
-        <v>249</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
+        <v>251</v>
+      </c>
+      <c r="F120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3"/>
+      <c r="D121" t="s">
         <v>250</v>
       </c>
-      <c r="F119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="D120" t="s">
+      <c r="E121" t="s">
         <v>251</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3"/>
+      <c r="D122" t="s">
         <v>252</v>
       </c>
-      <c r="F120" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="D121" t="s">
-        <v>251</v>
-      </c>
-      <c r="E121" t="s">
-        <v>252</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>253</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3"/>
+      <c r="D123" t="s">
         <v>254</v>
       </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>255</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="D124" t="s">
         <v>256</v>
       </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>257</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3"/>
+      <c r="D125" t="s">
         <v>258</v>
       </c>
-      <c r="F124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>259</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3"/>
+      <c r="D126" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3"/>
+      <c r="D127" t="s">
+        <v>258</v>
+      </c>
+      <c r="E127" t="s">
+        <v>259</v>
+      </c>
+      <c r="F127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3"/>
+      <c r="D128" t="s">
         <v>260</v>
       </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="D126" t="s">
-        <v>259</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="E128" t="s">
+        <v>261</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="D129" t="s">
         <v>260</v>
       </c>
-      <c r="F126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="D127" t="s">
-        <v>259</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="E129" t="s">
+        <v>261</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="3"/>
+      <c r="D130" t="s">
         <v>260</v>
       </c>
-      <c r="F127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="D128" t="s">
+      <c r="E130" t="s">
         <v>261</v>
       </c>
-      <c r="E128" t="s">
-        <v>262</v>
-      </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="D129" t="s">
-        <v>261</v>
-      </c>
-      <c r="E129" t="s">
-        <v>262</v>
-      </c>
-      <c r="F129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="D130" t="s">
-        <v>261</v>
-      </c>
-      <c r="E130" t="s">
-        <v>262</v>
-      </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
+      <c r="D131" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -3403,62 +3403,62 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
+      <c r="A133" s="3"/>
       <c r="D133" t="s">
+        <v>263</v>
+      </c>
+      <c r="E133" t="s">
         <v>264</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>265</v>
       </c>
-      <c r="F133" t="s">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+      <c r="D134" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>267</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>268</v>
       </c>
-      <c r="F134" t="s">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="D135" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>270</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="D136" t="s">
         <v>271</v>
       </c>
-      <c r="F135" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>272</v>
       </c>
-      <c r="E136" t="s">
-        <v>273</v>
-      </c>
       <c r="F136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+      <c r="D137" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
@@ -3481,84 +3481,84 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
+      <c r="A139" s="3"/>
       <c r="D139" t="s">
+        <v>274</v>
+      </c>
+      <c r="E139" t="s">
         <v>275</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="D140" t="s">
+        <v>274</v>
+      </c>
+      <c r="E140" t="s">
+        <v>275</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="D141" t="s">
         <v>276</v>
       </c>
-      <c r="F139" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="D140" t="s">
-        <v>275</v>
-      </c>
-      <c r="E140" t="s">
-        <v>276</v>
-      </c>
-      <c r="F140" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>277</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="3"/>
+      <c r="D142" t="s">
         <v>278</v>
       </c>
-      <c r="F141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>279</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3"/>
+      <c r="D143" t="s">
         <v>280</v>
       </c>
-      <c r="F142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>281</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="3"/>
+      <c r="D144" t="s">
         <v>282</v>
       </c>
-      <c r="F143" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>283</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3"/>
+      <c r="D145" t="s">
         <v>284</v>
       </c>
-      <c r="F144" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>285</v>
-      </c>
-      <c r="E145" t="s">
-        <v>286</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -3568,11 +3568,11 @@
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="D146" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -3595,24 +3595,24 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
+      <c r="A148" s="3"/>
       <c r="D148" t="s">
+        <v>287</v>
+      </c>
+      <c r="E148" t="s">
         <v>288</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="3"/>
+      <c r="D149" t="s">
         <v>289</v>
       </c>
-      <c r="F148" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>290</v>
-      </c>
-      <c r="E149" t="s">
-        <v>291</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -3622,11 +3622,11 @@
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+      <c r="D150" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -3649,327 +3649,327 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
+      <c r="A152" s="3"/>
       <c r="B152" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" t="s">
         <v>293</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E152" t="s">
         <v>294</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" t="s">
         <v>295</v>
       </c>
-      <c r="F152" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>296</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="3"/>
+      <c r="B154" t="s">
         <v>297</v>
       </c>
-      <c r="F153" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>298</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>299</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>300</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3"/>
+      <c r="B155" t="s">
         <v>301</v>
       </c>
-      <c r="F154" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>302</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>303</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>304</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3"/>
+      <c r="B156" t="s">
         <v>305</v>
       </c>
-      <c r="F155" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>306</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>307</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>308</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="3"/>
+      <c r="B157" t="s">
         <v>309</v>
       </c>
-      <c r="F156" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>310</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>311</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
+        <v>294</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="3"/>
+      <c r="B158" t="s">
         <v>312</v>
       </c>
-      <c r="E157" t="s">
-        <v>295</v>
-      </c>
-      <c r="F157" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>313</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
+        <v>303</v>
+      </c>
+      <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="3"/>
+      <c r="B159" t="s">
         <v>314</v>
       </c>
-      <c r="D158" t="s">
+      <c r="C159" t="s">
+        <v>315</v>
+      </c>
+      <c r="D159" t="s">
+        <v>303</v>
+      </c>
+      <c r="E159" t="s">
         <v>304</v>
       </c>
-      <c r="E158" t="s">
-        <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
-      <c r="B159" t="s">
-        <v>315</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="3"/>
+      <c r="B160" t="s">
         <v>316</v>
       </c>
-      <c r="D159" t="s">
-        <v>304</v>
-      </c>
-      <c r="E159" t="s">
-        <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>317</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>318</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>319</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="3"/>
+      <c r="B161" t="s">
         <v>320</v>
       </c>
-      <c r="F160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>321</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>322</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>323</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="3"/>
+      <c r="B162" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" t="s">
         <v>324</v>
       </c>
-      <c r="F161" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4"/>
-      <c r="B162" t="s">
-        <v>48</v>
-      </c>
-      <c r="C162" t="s">
-        <v>49</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>325</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="3"/>
+      <c r="B163" t="s">
         <v>326</v>
       </c>
-      <c r="F162" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="4"/>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>327</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>328</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>329</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" t="s">
         <v>330</v>
       </c>
-      <c r="F163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>331</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="3"/>
+      <c r="B165" t="s">
         <v>332</v>
       </c>
-      <c r="F164" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>333</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>334</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>335</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="3"/>
+      <c r="B166" t="s">
         <v>336</v>
       </c>
-      <c r="F165" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>337</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>338</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>339</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="3"/>
+      <c r="B167" t="s">
         <v>340</v>
       </c>
-      <c r="F166" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>341</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>342</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>343</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="3"/>
+      <c r="B168" t="s">
         <v>344</v>
       </c>
-      <c r="F167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="4"/>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>345</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
+        <v>338</v>
+      </c>
+      <c r="E168" t="s">
+        <v>339</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="3"/>
+      <c r="B169" t="s">
         <v>346</v>
       </c>
-      <c r="D168" t="s">
+      <c r="C169" t="s">
+        <v>347</v>
+      </c>
+      <c r="D169" t="s">
+        <v>338</v>
+      </c>
+      <c r="E169" t="s">
         <v>339</v>
       </c>
-      <c r="E168" t="s">
-        <v>340</v>
-      </c>
-      <c r="F168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
-      <c r="B169" t="s">
-        <v>347</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D169" t="s">
-        <v>339</v>
-      </c>
-      <c r="E169" t="s">
-        <v>340</v>
-      </c>
-      <c r="F169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
@@ -3981,240 +3981,240 @@
       <c r="C171" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
+      <c r="A172" s="3"/>
       <c r="B172" t="s">
+        <v>349</v>
+      </c>
+      <c r="C172" t="s">
         <v>350</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>351</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>352</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="3"/>
+      <c r="B173" t="s">
         <v>353</v>
       </c>
-      <c r="F172" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="4"/>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>354</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>355</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>356</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3"/>
+      <c r="B174" t="s">
         <v>357</v>
       </c>
-      <c r="F173" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>358</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>351</v>
+      </c>
+      <c r="E174" t="s">
+        <v>352</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" t="s">
+        <v>355</v>
+      </c>
+      <c r="E175" t="s">
+        <v>356</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="3"/>
+      <c r="B176" t="s">
         <v>359</v>
       </c>
-      <c r="D174" t="s">
-        <v>352</v>
-      </c>
-      <c r="E174" t="s">
-        <v>353</v>
-      </c>
-      <c r="F174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="C176" t="s">
+        <v>360</v>
+      </c>
+      <c r="D176" t="s">
+        <v>355</v>
+      </c>
+      <c r="E176" t="s">
         <v>356</v>
       </c>
-      <c r="E175" t="s">
-        <v>357</v>
-      </c>
-      <c r="F175" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="4"/>
-      <c r="B176" t="s">
-        <v>360</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" t="s">
         <v>361</v>
       </c>
-      <c r="D176" t="s">
-        <v>356</v>
-      </c>
-      <c r="E176" t="s">
-        <v>357</v>
-      </c>
-      <c r="F176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>362</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" t="s">
         <v>363</v>
       </c>
-      <c r="F177" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>364</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" t="s">
         <v>365</v>
       </c>
-      <c r="F178" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>366</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3"/>
+      <c r="B180" t="s">
         <v>367</v>
       </c>
-      <c r="F179" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>368</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>369</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>370</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3"/>
+      <c r="B181" t="s">
         <v>371</v>
       </c>
-      <c r="F180" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="4"/>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>372</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>373</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>374</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="3"/>
+      <c r="B182" t="s">
         <v>375</v>
       </c>
-      <c r="F181" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>376</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E182" t="s">
         <v>377</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" t="s">
         <v>378</v>
       </c>
-      <c r="F182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>379</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="3"/>
+      <c r="B184" t="s">
         <v>380</v>
       </c>
-      <c r="F183" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="4"/>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>381</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" t="s">
         <v>382</v>
       </c>
-      <c r="D184" t="s">
-        <v>36</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="3"/>
+      <c r="B185" t="s">
         <v>383</v>
       </c>
-      <c r="F184" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="4"/>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>384</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>385</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>386</v>
-      </c>
-      <c r="E185" t="s">
-        <v>387</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -4225,7 +4225,7 @@
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -4252,11 +4252,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D150:F150"/>
     <mergeCell ref="D170:F170"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D20:F20"/>
@@ -4264,6 +4259,11 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D83:F83"/>
     <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D150:F150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
+++ b/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
@@ -242,9 +242,6 @@
     <t>Article Service       </t>
   </si>
   <si>
-    <t>Q_API_TEST_Aggregate_spec</t>
-  </si>
-  <si>
     <t>query/aggregate</t>
   </si>
   <si>
@@ -1191,6 +1188,9 @@
   </si>
   <si>
     <t xml:space="preserve">BO_API_TEST_DeleteAccount_spec.js </t>
+  </si>
+  <si>
+    <t>POST_Articles_aggregate_spec.js</t>
   </si>
 </sst>
 </file>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,7 +1609,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2011,13 +2011,13 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -2026,13 +2026,13 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>77</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -2041,13 +2041,13 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>80</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -2056,16 +2056,16 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
         <v>81</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>84</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -2074,16 +2074,16 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>86</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>87</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -2092,16 +2092,16 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
         <v>89</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>92</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2112,10 +2112,10 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
         <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>94</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -2124,16 +2124,16 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
         <v>95</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>96</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>97</v>
-      </c>
-      <c r="E38" t="s">
-        <v>98</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -2142,16 +2142,16 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
         <v>99</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>100</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>102</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2160,16 +2160,16 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>104</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>105</v>
-      </c>
-      <c r="E40" t="s">
-        <v>106</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -2178,16 +2178,16 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
         <v>107</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>108</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>109</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2198,10 +2198,10 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
         <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>112</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2210,13 +2210,13 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
         <v>113</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>114</v>
-      </c>
-      <c r="E43" t="s">
-        <v>115</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2227,10 +2227,10 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" t="s">
         <v>116</v>
-      </c>
-      <c r="E44" t="s">
-        <v>117</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2241,10 +2241,10 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
         <v>118</v>
-      </c>
-      <c r="E45" t="s">
-        <v>119</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -2255,10 +2255,10 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
         <v>120</v>
-      </c>
-      <c r="E46" t="s">
-        <v>121</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2269,10 +2269,10 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
         <v>122</v>
-      </c>
-      <c r="E47" t="s">
-        <v>123</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2283,10 +2283,10 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" t="s">
         <v>124</v>
-      </c>
-      <c r="E48" t="s">
-        <v>125</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2297,10 +2297,10 @@
         <v>19</v>
       </c>
       <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
         <v>126</v>
-      </c>
-      <c r="E49" t="s">
-        <v>127</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2311,7 +2311,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2339,10 +2339,10 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
         <v>129</v>
-      </c>
-      <c r="E52" t="s">
-        <v>130</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -2351,10 +2351,10 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2363,10 +2363,10 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="D54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" t="s">
         <v>132</v>
-      </c>
-      <c r="E54" t="s">
-        <v>133</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2375,10 +2375,10 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -2387,10 +2387,10 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
         <v>135</v>
-      </c>
-      <c r="E56" t="s">
-        <v>136</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2399,10 +2399,10 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="s">
         <v>137</v>
-      </c>
-      <c r="E57" t="s">
-        <v>138</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2411,10 +2411,10 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
         <v>139</v>
-      </c>
-      <c r="E58" t="s">
-        <v>140</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -2423,10 +2423,10 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="D59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" t="s">
         <v>141</v>
-      </c>
-      <c r="E59" t="s">
-        <v>142</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -2435,10 +2435,10 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="D60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" t="s">
         <v>143</v>
-      </c>
-      <c r="E60" t="s">
-        <v>144</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -2447,10 +2447,10 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="D61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" t="s">
         <v>145</v>
-      </c>
-      <c r="E61" t="s">
-        <v>146</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -2459,10 +2459,10 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="D62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" t="s">
         <v>147</v>
-      </c>
-      <c r="E62" t="s">
-        <v>148</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2471,10 +2471,10 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="D63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" t="s">
         <v>149</v>
-      </c>
-      <c r="E63" t="s">
-        <v>150</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2483,10 +2483,10 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="D64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" t="s">
         <v>151</v>
-      </c>
-      <c r="E64" t="s">
-        <v>152</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2495,10 +2495,10 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -2507,10 +2507,10 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
         <v>41</v>
@@ -2519,10 +2519,10 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="D67" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" t="s">
         <v>155</v>
-      </c>
-      <c r="E67" t="s">
-        <v>156</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2531,10 +2531,10 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="D68" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" t="s">
         <v>157</v>
-      </c>
-      <c r="E68" t="s">
-        <v>158</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2543,10 +2543,10 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="D69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" t="s">
         <v>159</v>
-      </c>
-      <c r="E69" t="s">
-        <v>160</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2555,10 +2555,10 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="D70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" t="s">
         <v>161</v>
-      </c>
-      <c r="E70" t="s">
-        <v>162</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -2567,10 +2567,10 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2579,10 +2579,10 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="D72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" t="s">
         <v>164</v>
-      </c>
-      <c r="E72" t="s">
-        <v>165</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2591,10 +2591,10 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="D73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" t="s">
         <v>166</v>
-      </c>
-      <c r="E73" t="s">
-        <v>167</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2603,10 +2603,10 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
         <v>168</v>
-      </c>
-      <c r="E74" t="s">
-        <v>169</v>
       </c>
       <c r="F74" t="s">
         <v>41</v>
@@ -2615,10 +2615,10 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -2627,10 +2627,10 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="D76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" t="s">
         <v>171</v>
-      </c>
-      <c r="E76" t="s">
-        <v>172</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
@@ -2639,10 +2639,10 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="D77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" t="s">
         <v>173</v>
-      </c>
-      <c r="E77" t="s">
-        <v>174</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -2651,10 +2651,10 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" t="s">
         <v>175</v>
-      </c>
-      <c r="E78" t="s">
-        <v>176</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
@@ -2663,10 +2663,10 @@
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
         <v>177</v>
-      </c>
-      <c r="E79" t="s">
-        <v>178</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2675,10 +2675,10 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" t="s">
         <v>179</v>
-      </c>
-      <c r="E80" t="s">
-        <v>180</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2687,10 +2687,10 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="D81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" t="s">
         <v>181</v>
-      </c>
-      <c r="E81" t="s">
-        <v>182</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
@@ -2699,10 +2699,10 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="D82" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" t="s">
         <v>183</v>
-      </c>
-      <c r="E82" t="s">
-        <v>184</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -2713,7 +2713,7 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -2741,16 +2741,16 @@
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
         <v>186</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>187</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>188</v>
-      </c>
-      <c r="E85" t="s">
-        <v>189</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2759,16 +2759,16 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" t="s">
         <v>190</v>
       </c>
-      <c r="C86" t="s">
-        <v>191</v>
-      </c>
       <c r="D86" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" t="s">
         <v>188</v>
-      </c>
-      <c r="E86" t="s">
-        <v>189</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -2777,16 +2777,16 @@
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="s">
         <v>192</v>
       </c>
-      <c r="C87" t="s">
-        <v>193</v>
-      </c>
       <c r="D87" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" t="s">
         <v>188</v>
-      </c>
-      <c r="E87" t="s">
-        <v>189</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
@@ -2795,16 +2795,16 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>195</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>196</v>
-      </c>
-      <c r="E88" t="s">
-        <v>197</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2813,16 +2813,16 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
         <v>198</v>
       </c>
-      <c r="C89" t="s">
-        <v>199</v>
-      </c>
       <c r="D89" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" t="s">
         <v>196</v>
-      </c>
-      <c r="E89" t="s">
-        <v>197</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
@@ -2831,16 +2831,16 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
         <v>196</v>
-      </c>
-      <c r="E90" t="s">
-        <v>197</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -2849,16 +2849,16 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" t="s">
         <v>201</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>202</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>203</v>
-      </c>
-      <c r="E91" t="s">
-        <v>204</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2867,16 +2867,16 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
         <v>205</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>206</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>207</v>
-      </c>
-      <c r="E92" t="s">
-        <v>208</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -2885,16 +2885,16 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" t="s">
         <v>209</v>
       </c>
-      <c r="C93" t="s">
-        <v>202</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>210</v>
-      </c>
-      <c r="E93" t="s">
-        <v>211</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2903,16 +2903,16 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" t="s">
         <v>203</v>
-      </c>
-      <c r="E94" t="s">
-        <v>204</v>
       </c>
       <c r="F94" t="s">
         <v>11</v>
@@ -2923,10 +2923,10 @@
         <v>19</v>
       </c>
       <c r="D95" t="s">
+        <v>212</v>
+      </c>
+      <c r="E95" t="s">
         <v>213</v>
-      </c>
-      <c r="E95" t="s">
-        <v>214</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
@@ -2935,16 +2935,16 @@
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" t="s">
         <v>215</v>
       </c>
-      <c r="C96" t="s">
-        <v>216</v>
-      </c>
       <c r="D96" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" t="s">
         <v>210</v>
-      </c>
-      <c r="E96" t="s">
-        <v>211</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
@@ -2955,13 +2955,13 @@
         <v>19</v>
       </c>
       <c r="D97" t="s">
+        <v>216</v>
+      </c>
+      <c r="E97" t="s">
         <v>217</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>218</v>
-      </c>
-      <c r="F97" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -2997,10 +2997,10 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="D100" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" t="s">
         <v>221</v>
-      </c>
-      <c r="E100" t="s">
-        <v>222</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -3009,10 +3009,10 @@
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="D101" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" t="s">
         <v>223</v>
-      </c>
-      <c r="E101" t="s">
-        <v>224</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -3021,10 +3021,10 @@
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="D102" t="s">
+        <v>224</v>
+      </c>
+      <c r="E102" t="s">
         <v>225</v>
-      </c>
-      <c r="E102" t="s">
-        <v>226</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
@@ -3033,10 +3033,10 @@
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="D103" t="s">
+        <v>226</v>
+      </c>
+      <c r="E103" t="s">
         <v>227</v>
-      </c>
-      <c r="E103" t="s">
-        <v>228</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -3045,10 +3045,10 @@
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="D104" t="s">
+        <v>228</v>
+      </c>
+      <c r="E104" t="s">
         <v>229</v>
-      </c>
-      <c r="E104" t="s">
-        <v>230</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
@@ -3057,10 +3057,10 @@
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="D105" t="s">
+        <v>230</v>
+      </c>
+      <c r="E105" t="s">
         <v>231</v>
-      </c>
-      <c r="E105" t="s">
-        <v>232</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -3069,10 +3069,10 @@
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="D106" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" t="s">
         <v>233</v>
-      </c>
-      <c r="E106" t="s">
-        <v>234</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -3081,10 +3081,10 @@
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="D107" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" t="s">
         <v>235</v>
-      </c>
-      <c r="E107" t="s">
-        <v>236</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -3093,10 +3093,10 @@
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="D108" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" t="s">
         <v>237</v>
-      </c>
-      <c r="E108" t="s">
-        <v>238</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3107,7 +3107,7 @@
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -3135,10 +3135,10 @@
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="D111" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" t="s">
         <v>240</v>
-      </c>
-      <c r="E111" t="s">
-        <v>241</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3147,10 +3147,10 @@
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="D112" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" t="s">
         <v>242</v>
-      </c>
-      <c r="E112" t="s">
-        <v>243</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3159,10 +3159,10 @@
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="D113" t="s">
+        <v>241</v>
+      </c>
+      <c r="E113" t="s">
         <v>242</v>
-      </c>
-      <c r="E113" t="s">
-        <v>243</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
@@ -3171,10 +3171,10 @@
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="D114" t="s">
+        <v>243</v>
+      </c>
+      <c r="E114" t="s">
         <v>244</v>
-      </c>
-      <c r="E114" t="s">
-        <v>245</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -3183,10 +3183,10 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="D115" t="s">
+        <v>243</v>
+      </c>
+      <c r="E115" t="s">
         <v>244</v>
-      </c>
-      <c r="E115" t="s">
-        <v>245</v>
       </c>
       <c r="F115" t="s">
         <v>41</v>
@@ -3195,10 +3195,10 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="D116" t="s">
+        <v>243</v>
+      </c>
+      <c r="E116" t="s">
         <v>244</v>
-      </c>
-      <c r="E116" t="s">
-        <v>245</v>
       </c>
       <c r="F116" t="s">
         <v>12</v>
@@ -3207,10 +3207,10 @@
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="D117" t="s">
+        <v>245</v>
+      </c>
+      <c r="E117" t="s">
         <v>246</v>
-      </c>
-      <c r="E117" t="s">
-        <v>247</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -3219,10 +3219,10 @@
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="D118" t="s">
+        <v>247</v>
+      </c>
+      <c r="E118" t="s">
         <v>248</v>
-      </c>
-      <c r="E118" t="s">
-        <v>249</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -3231,10 +3231,10 @@
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="D119" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" t="s">
         <v>248</v>
-      </c>
-      <c r="E119" t="s">
-        <v>249</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
@@ -3243,10 +3243,10 @@
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="D120" t="s">
+        <v>249</v>
+      </c>
+      <c r="E120" t="s">
         <v>250</v>
-      </c>
-      <c r="E120" t="s">
-        <v>251</v>
       </c>
       <c r="F120" t="s">
         <v>41</v>
@@ -3255,10 +3255,10 @@
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="D121" t="s">
+        <v>249</v>
+      </c>
+      <c r="E121" t="s">
         <v>250</v>
-      </c>
-      <c r="E121" t="s">
-        <v>251</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
@@ -3267,10 +3267,10 @@
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="D122" t="s">
+        <v>251</v>
+      </c>
+      <c r="E122" t="s">
         <v>252</v>
-      </c>
-      <c r="E122" t="s">
-        <v>253</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -3279,10 +3279,10 @@
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="D123" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123" t="s">
         <v>254</v>
-      </c>
-      <c r="E123" t="s">
-        <v>255</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -3291,10 +3291,10 @@
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="D124" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" t="s">
         <v>256</v>
-      </c>
-      <c r="E124" t="s">
-        <v>257</v>
       </c>
       <c r="F124" t="s">
         <v>11</v>
@@ -3303,10 +3303,10 @@
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="D125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E125" t="s">
         <v>258</v>
-      </c>
-      <c r="E125" t="s">
-        <v>259</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -3315,10 +3315,10 @@
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="D126" t="s">
+        <v>257</v>
+      </c>
+      <c r="E126" t="s">
         <v>258</v>
-      </c>
-      <c r="E126" t="s">
-        <v>259</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
@@ -3327,10 +3327,10 @@
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="D127" t="s">
+        <v>257</v>
+      </c>
+      <c r="E127" t="s">
         <v>258</v>
-      </c>
-      <c r="E127" t="s">
-        <v>259</v>
       </c>
       <c r="F127" t="s">
         <v>41</v>
@@ -3339,10 +3339,10 @@
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="D128" t="s">
+        <v>259</v>
+      </c>
+      <c r="E128" t="s">
         <v>260</v>
-      </c>
-      <c r="E128" t="s">
-        <v>261</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -3351,10 +3351,10 @@
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="D129" t="s">
+        <v>259</v>
+      </c>
+      <c r="E129" t="s">
         <v>260</v>
-      </c>
-      <c r="E129" t="s">
-        <v>261</v>
       </c>
       <c r="F129" t="s">
         <v>11</v>
@@ -3363,10 +3363,10 @@
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="D130" t="s">
+        <v>259</v>
+      </c>
+      <c r="E130" t="s">
         <v>260</v>
-      </c>
-      <c r="E130" t="s">
-        <v>261</v>
       </c>
       <c r="F130" t="s">
         <v>41</v>
@@ -3377,7 +3377,7 @@
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -3405,49 +3405,49 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="D133" t="s">
+        <v>262</v>
+      </c>
+      <c r="E133" t="s">
         <v>263</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>264</v>
-      </c>
-      <c r="F133" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="D134" t="s">
+        <v>265</v>
+      </c>
+      <c r="E134" t="s">
         <v>266</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="D135" t="s">
+        <v>268</v>
+      </c>
+      <c r="E135" t="s">
         <v>269</v>
       </c>
-      <c r="E135" t="s">
-        <v>270</v>
-      </c>
       <c r="F135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="D136" t="s">
+        <v>270</v>
+      </c>
+      <c r="E136" t="s">
         <v>271</v>
       </c>
-      <c r="E136" t="s">
-        <v>272</v>
-      </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3455,7 +3455,7 @@
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -3483,10 +3483,10 @@
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="D139" t="s">
+        <v>273</v>
+      </c>
+      <c r="E139" t="s">
         <v>274</v>
-      </c>
-      <c r="E139" t="s">
-        <v>275</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
@@ -3495,10 +3495,10 @@
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="D140" t="s">
+        <v>273</v>
+      </c>
+      <c r="E140" t="s">
         <v>274</v>
-      </c>
-      <c r="E140" t="s">
-        <v>275</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -3507,10 +3507,10 @@
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="D141" t="s">
+        <v>275</v>
+      </c>
+      <c r="E141" t="s">
         <v>276</v>
-      </c>
-      <c r="E141" t="s">
-        <v>277</v>
       </c>
       <c r="F141" t="s">
         <v>11</v>
@@ -3519,10 +3519,10 @@
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="D142" t="s">
+        <v>277</v>
+      </c>
+      <c r="E142" t="s">
         <v>278</v>
-      </c>
-      <c r="E142" t="s">
-        <v>279</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
@@ -3531,10 +3531,10 @@
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="D143" t="s">
+        <v>279</v>
+      </c>
+      <c r="E143" t="s">
         <v>280</v>
-      </c>
-      <c r="E143" t="s">
-        <v>281</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
@@ -3543,10 +3543,10 @@
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="D144" t="s">
+        <v>281</v>
+      </c>
+      <c r="E144" t="s">
         <v>282</v>
-      </c>
-      <c r="E144" t="s">
-        <v>283</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
@@ -3555,10 +3555,10 @@
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="D145" t="s">
+        <v>283</v>
+      </c>
+      <c r="E145" t="s">
         <v>284</v>
-      </c>
-      <c r="E145" t="s">
-        <v>285</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -3569,7 +3569,7 @@
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -3597,10 +3597,10 @@
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="D148" t="s">
+        <v>286</v>
+      </c>
+      <c r="E148" t="s">
         <v>287</v>
-      </c>
-      <c r="E148" t="s">
-        <v>288</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -3609,10 +3609,10 @@
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="D149" t="s">
+        <v>288</v>
+      </c>
+      <c r="E149" t="s">
         <v>289</v>
-      </c>
-      <c r="E149" t="s">
-        <v>290</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -3623,7 +3623,7 @@
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -3651,13 +3651,13 @@
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
+        <v>291</v>
+      </c>
+      <c r="C152" t="s">
         <v>292</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E152" t="s">
         <v>293</v>
-      </c>
-      <c r="E152" t="s">
-        <v>294</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
@@ -3668,10 +3668,10 @@
         <v>19</v>
       </c>
       <c r="D153" t="s">
+        <v>294</v>
+      </c>
+      <c r="E153" t="s">
         <v>295</v>
-      </c>
-      <c r="E153" t="s">
-        <v>296</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
@@ -3680,16 +3680,16 @@
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
+        <v>296</v>
+      </c>
+      <c r="C154" t="s">
         <v>297</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>298</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>299</v>
-      </c>
-      <c r="E154" t="s">
-        <v>300</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -3698,16 +3698,16 @@
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
+        <v>300</v>
+      </c>
+      <c r="C155" t="s">
         <v>301</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>302</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>303</v>
-      </c>
-      <c r="E155" t="s">
-        <v>304</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -3716,16 +3716,16 @@
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
+        <v>304</v>
+      </c>
+      <c r="C156" t="s">
         <v>305</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>306</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>307</v>
-      </c>
-      <c r="E156" t="s">
-        <v>308</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -3734,16 +3734,16 @@
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" t="s">
         <v>309</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>310</v>
       </c>
-      <c r="D157" t="s">
-        <v>311</v>
-      </c>
       <c r="E157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
         <v>11</v>
@@ -3752,16 +3752,16 @@
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" t="s">
         <v>312</v>
       </c>
-      <c r="C158" t="s">
-        <v>313</v>
-      </c>
       <c r="D158" t="s">
+        <v>302</v>
+      </c>
+      <c r="E158" t="s">
         <v>303</v>
-      </c>
-      <c r="E158" t="s">
-        <v>304</v>
       </c>
       <c r="F158" t="s">
         <v>41</v>
@@ -3770,16 +3770,16 @@
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" t="s">
         <v>314</v>
       </c>
-      <c r="C159" t="s">
-        <v>315</v>
-      </c>
       <c r="D159" t="s">
+        <v>302</v>
+      </c>
+      <c r="E159" t="s">
         <v>303</v>
-      </c>
-      <c r="E159" t="s">
-        <v>304</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
@@ -3788,16 +3788,16 @@
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
+        <v>315</v>
+      </c>
+      <c r="C160" t="s">
         <v>316</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>317</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>318</v>
-      </c>
-      <c r="E160" t="s">
-        <v>319</v>
       </c>
       <c r="F160" t="s">
         <v>11</v>
@@ -3806,16 +3806,16 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161" t="s">
         <v>320</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>321</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>322</v>
-      </c>
-      <c r="E161" t="s">
-        <v>323</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
@@ -3830,10 +3830,10 @@
         <v>48</v>
       </c>
       <c r="D162" t="s">
+        <v>323</v>
+      </c>
+      <c r="E162" t="s">
         <v>324</v>
-      </c>
-      <c r="E162" t="s">
-        <v>325</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -3842,16 +3842,16 @@
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
+        <v>325</v>
+      </c>
+      <c r="C163" t="s">
         <v>326</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>327</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>328</v>
-      </c>
-      <c r="E163" t="s">
-        <v>329</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
@@ -3862,10 +3862,10 @@
         <v>19</v>
       </c>
       <c r="D164" t="s">
+        <v>329</v>
+      </c>
+      <c r="E164" t="s">
         <v>330</v>
-      </c>
-      <c r="E164" t="s">
-        <v>331</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -3874,16 +3874,16 @@
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" t="s">
         <v>332</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>333</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>334</v>
-      </c>
-      <c r="E165" t="s">
-        <v>335</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -3892,16 +3892,16 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
+        <v>335</v>
+      </c>
+      <c r="C166" t="s">
         <v>336</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>337</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>338</v>
-      </c>
-      <c r="E166" t="s">
-        <v>339</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -3910,16 +3910,16 @@
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
+        <v>339</v>
+      </c>
+      <c r="C167" t="s">
         <v>340</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>341</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>342</v>
-      </c>
-      <c r="E167" t="s">
-        <v>343</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -3928,16 +3928,16 @@
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
+        <v>343</v>
+      </c>
+      <c r="C168" t="s">
         <v>344</v>
       </c>
-      <c r="C168" t="s">
-        <v>345</v>
-      </c>
       <c r="D168" t="s">
+        <v>337</v>
+      </c>
+      <c r="E168" t="s">
         <v>338</v>
-      </c>
-      <c r="E168" t="s">
-        <v>339</v>
       </c>
       <c r="F168" t="s">
         <v>11</v>
@@ -3946,16 +3946,16 @@
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169" t="s">
         <v>346</v>
       </c>
-      <c r="C169" t="s">
-        <v>347</v>
-      </c>
       <c r="D169" t="s">
+        <v>337</v>
+      </c>
+      <c r="E169" t="s">
         <v>338</v>
-      </c>
-      <c r="E169" t="s">
-        <v>339</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
@@ -3966,7 +3966,7 @@
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
@@ -3994,16 +3994,16 @@
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172" t="s">
         <v>349</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>350</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>351</v>
-      </c>
-      <c r="E172" t="s">
-        <v>352</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -4012,16 +4012,16 @@
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" t="s">
         <v>353</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>354</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>355</v>
-      </c>
-      <c r="E173" t="s">
-        <v>356</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -4030,16 +4030,16 @@
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" t="s">
         <v>357</v>
       </c>
-      <c r="C174" t="s">
-        <v>358</v>
-      </c>
       <c r="D174" t="s">
+        <v>350</v>
+      </c>
+      <c r="E174" t="s">
         <v>351</v>
-      </c>
-      <c r="E174" t="s">
-        <v>352</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
@@ -4050,10 +4050,10 @@
         <v>19</v>
       </c>
       <c r="D175" t="s">
+        <v>354</v>
+      </c>
+      <c r="E175" t="s">
         <v>355</v>
-      </c>
-      <c r="E175" t="s">
-        <v>356</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
@@ -4062,16 +4062,16 @@
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" t="s">
         <v>359</v>
       </c>
-      <c r="C176" t="s">
-        <v>360</v>
-      </c>
       <c r="D176" t="s">
+        <v>354</v>
+      </c>
+      <c r="E176" t="s">
         <v>355</v>
-      </c>
-      <c r="E176" t="s">
-        <v>356</v>
       </c>
       <c r="F176" t="s">
         <v>12</v>
@@ -4082,10 +4082,10 @@
         <v>19</v>
       </c>
       <c r="D177" t="s">
+        <v>360</v>
+      </c>
+      <c r="E177" t="s">
         <v>361</v>
-      </c>
-      <c r="E177" t="s">
-        <v>362</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -4096,10 +4096,10 @@
         <v>19</v>
       </c>
       <c r="D178" t="s">
+        <v>362</v>
+      </c>
+      <c r="E178" t="s">
         <v>363</v>
-      </c>
-      <c r="E178" t="s">
-        <v>364</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -4110,10 +4110,10 @@
         <v>19</v>
       </c>
       <c r="D179" t="s">
+        <v>364</v>
+      </c>
+      <c r="E179" t="s">
         <v>365</v>
-      </c>
-      <c r="E179" t="s">
-        <v>366</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -4122,16 +4122,16 @@
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
+        <v>366</v>
+      </c>
+      <c r="C180" t="s">
         <v>367</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>368</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>369</v>
-      </c>
-      <c r="E180" t="s">
-        <v>370</v>
       </c>
       <c r="F180" t="s">
         <v>11</v>
@@ -4140,16 +4140,16 @@
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
+        <v>370</v>
+      </c>
+      <c r="C181" t="s">
         <v>371</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>372</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>373</v>
-      </c>
-      <c r="E181" t="s">
-        <v>374</v>
       </c>
       <c r="F181" t="s">
         <v>41</v>
@@ -4158,13 +4158,13 @@
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
+        <v>374</v>
+      </c>
+      <c r="C182" t="s">
         <v>375</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E182" t="s">
         <v>376</v>
-      </c>
-      <c r="E182" t="s">
-        <v>377</v>
       </c>
       <c r="F182" t="s">
         <v>11</v>
@@ -4175,10 +4175,10 @@
         <v>19</v>
       </c>
       <c r="D183" t="s">
+        <v>377</v>
+      </c>
+      <c r="E183" t="s">
         <v>378</v>
-      </c>
-      <c r="E183" t="s">
-        <v>379</v>
       </c>
       <c r="F183" t="s">
         <v>41</v>
@@ -4187,16 +4187,16 @@
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
+        <v>379</v>
+      </c>
+      <c r="C184" t="s">
         <v>380</v>
-      </c>
-      <c r="C184" t="s">
-        <v>381</v>
       </c>
       <c r="D184" t="s">
         <v>35</v>
       </c>
       <c r="E184" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -4205,16 +4205,16 @@
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
+        <v>382</v>
+      </c>
+      <c r="C185" t="s">
         <v>383</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>384</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>385</v>
-      </c>
-      <c r="E185" t="s">
-        <v>386</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -4225,7 +4225,7 @@
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>

--- a/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
+++ b/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9612"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="QA Automation Inventory List" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="400">
   <si>
     <t>Account Service       </t>
   </si>
@@ -1191,13 +1191,46 @@
   </si>
   <si>
     <t>POST_Articles_aggregate_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_stoplist_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_suggestions_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_templateEditor_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_entityEditor_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_directory_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_eltemplates_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_eltemplatesId_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_projects_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Kermit_entitylists_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Internal_topicStatus_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Internal_topicStatusId_spec.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,6 +1242,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1237,10 +1278,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1253,8 +1295,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1535,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3032,6 +3076,9 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
+      <c r="B103" t="s">
+        <v>399</v>
+      </c>
       <c r="D103" t="s">
         <v>226</v>
       </c>
@@ -3044,6 +3091,9 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
+      <c r="B104" t="s">
+        <v>398</v>
+      </c>
       <c r="D104" t="s">
         <v>228</v>
       </c>
@@ -3134,10 +3184,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
+      <c r="B111" t="s">
+        <v>393</v>
+      </c>
       <c r="D111" t="s">
         <v>239</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="6" t="s">
         <v>240</v>
       </c>
       <c r="F111" t="s">
@@ -3146,10 +3199,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
+      <c r="B112" t="s">
+        <v>394</v>
+      </c>
       <c r="D112" t="s">
         <v>241</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="6" t="s">
         <v>242</v>
       </c>
       <c r="F112" t="s">
@@ -3170,6 +3226,9 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
+      <c r="B114" t="s">
+        <v>395</v>
+      </c>
       <c r="D114" t="s">
         <v>243</v>
       </c>
@@ -3206,6 +3265,9 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
+      <c r="B117" t="s">
+        <v>396</v>
+      </c>
       <c r="D117" t="s">
         <v>245</v>
       </c>
@@ -3218,6 +3280,9 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
+      <c r="B118" t="s">
+        <v>397</v>
+      </c>
       <c r="D118" t="s">
         <v>247</v>
       </c>
@@ -3266,6 +3331,9 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
+      <c r="B122" t="s">
+        <v>390</v>
+      </c>
       <c r="D122" t="s">
         <v>251</v>
       </c>
@@ -3278,6 +3346,9 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
+      <c r="B123" t="s">
+        <v>389</v>
+      </c>
       <c r="D123" t="s">
         <v>253</v>
       </c>
@@ -3302,6 +3373,9 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
+      <c r="B125" t="s">
+        <v>392</v>
+      </c>
       <c r="D125" t="s">
         <v>257</v>
       </c>
@@ -3338,6 +3412,9 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
+      <c r="B128" t="s">
+        <v>391</v>
+      </c>
       <c r="D128" t="s">
         <v>259</v>
       </c>
@@ -4265,6 +4342,10 @@
     <mergeCell ref="D146:F146"/>
     <mergeCell ref="D150:F150"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E111" r:id="rId1"/>
+    <hyperlink ref="E112" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
+++ b/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="403">
   <si>
     <t>Account Service       </t>
   </si>
@@ -1224,6 +1224,15 @@
   </si>
   <si>
     <t>GET_Internal_topicStatusId_spec.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST_Account_accountUserUnique_spec.js </t>
+  </si>
+  <si>
+    <t>DELETE_Account_accountUser_spec.js</t>
+  </si>
+  <si>
+    <t>PUT_Account_accountUser_spec.js</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1301,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1579,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1597,11 +1606,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1652,9 +1661,6 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>387</v>
-      </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -1666,7 +1672,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
@@ -1722,8 +1730,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>387</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1825,8 +1834,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>400</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1839,8 +1849,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>401</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
@@ -1853,8 +1864,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>402</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
@@ -1870,11 +1882,11 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -2026,11 +2038,11 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -2354,11 +2366,11 @@
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -2756,11 +2768,11 @@
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -3012,11 +3024,11 @@
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -3156,11 +3168,11 @@
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -3190,7 +3202,7 @@
       <c r="D111" t="s">
         <v>239</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>240</v>
       </c>
       <c r="F111" t="s">
@@ -3205,7 +3217,7 @@
       <c r="D112" t="s">
         <v>241</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="5" t="s">
         <v>242</v>
       </c>
       <c r="F112" t="s">
@@ -3453,11 +3465,11 @@
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -3531,11 +3543,11 @@
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
@@ -3645,11 +3657,11 @@
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -3699,11 +3711,11 @@
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -4042,11 +4054,11 @@
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">

--- a/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
+++ b/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="427">
   <si>
     <t>Account Service       </t>
   </si>
@@ -47,9 +47,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>BO_API_TEST_GetAccountAuthSession_spec.js</t>
-  </si>
-  <si>
     <t>accountAuth</t>
   </si>
   <si>
@@ -71,18 +68,12 @@
     <t>http://prdintweb01.attensity.prd:8080/sidekick-account/rest/account</t>
   </si>
   <si>
-    <t>BO_API_TEST_EditAccountPut_spec.js</t>
-  </si>
-  <si>
     <t>account/{accountId}</t>
   </si>
   <si>
     <t>http://prdintweb01.attensity.prd:8080/sidekick-account/rest/account/{accountId}</t>
   </si>
   <si>
-    <t>BO_API_TEST_GetAccountList_spec.js</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -92,45 +83,30 @@
     <t>http://prdintweb01.attensity.prd:8080/sidekick-account/rest/account/unique</t>
   </si>
   <si>
-    <t>BO_API_TEST_GetAccountBrandList_spec.js</t>
-  </si>
-  <si>
     <t>account/brands</t>
   </si>
   <si>
     <t>http://prdintweb01.attensity.prd:8080/sidekick-account/rest/account/brands</t>
   </si>
   <si>
-    <t>BO_API_TEST_GetAccountType_spec.js</t>
-  </si>
-  <si>
     <t>account/accountInfo</t>
   </si>
   <si>
     <t>http://prdintweb01.attensity.prd:8080/sidekick-account/rest/account/accountInfo</t>
   </si>
   <si>
-    <t>BO_API_TEST_GetAccountReport_spec.js</t>
-  </si>
-  <si>
     <t>account/accountreport</t>
   </si>
   <si>
     <t>http://prdintweb01.attensity.prd:8080/sidekick-account/rest/account/accountreport</t>
   </si>
   <si>
-    <t xml:space="preserve">BO_API_TEST_GetAccountUsers_spec.js </t>
-  </si>
-  <si>
     <t>user/account/{accountId}</t>
   </si>
   <si>
     <t>http://prdintweb01.attensity.prd:8080/sidekick-account/rest/user/account/{accountId}</t>
   </si>
   <si>
-    <t>BO_API_TEST_UserAdminCreateNew_spec.js</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -362,9 +338,6 @@
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/trendsAndStdDev</t>
   </si>
   <si>
-    <t>BO_API_TEST_AverageAndMonthlyVolume_spec.js</t>
-  </si>
-  <si>
     <t>query/averageAndMonthlyVolume</t>
   </si>
   <si>
@@ -1187,9 +1160,6 @@
     <t>Licensing Service</t>
   </si>
   <si>
-    <t xml:space="preserve">BO_API_TEST_DeleteAccount_spec.js </t>
-  </si>
-  <si>
     <t>POST_Articles_aggregate_spec.js</t>
   </si>
   <si>
@@ -1233,13 +1203,115 @@
   </si>
   <si>
     <t>PUT_Account_accountUser_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Account_accountAuthSession_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST_Account_accountValidationLogin_spec.js </t>
+  </si>
+  <si>
+    <t>ARTSA-5161</t>
+  </si>
+  <si>
+    <t>ARTSA-5162</t>
+  </si>
+  <si>
+    <t>GET_Account_accountReport_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5163</t>
+  </si>
+  <si>
+    <t>GET_Account_accountType_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5164</t>
+  </si>
+  <si>
+    <t>GET_Account_accountUsers_spec.js</t>
+  </si>
+  <si>
+    <t>http://prdintweb01.attensity.prd:8080GET_Account_accountUsers_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5165</t>
+  </si>
+  <si>
+    <t>GET_Account_averageAndMonthlyVolume_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5166</t>
+  </si>
+  <si>
+    <t>GET_Account_accountBrandList_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5167</t>
+  </si>
+  <si>
+    <t>GET_Account_accountList_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5138</t>
+  </si>
+  <si>
+    <t>DELETE_Account_accountAuth_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5168</t>
+  </si>
+  <si>
+    <t>DELETE_Account_account_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5137</t>
+  </si>
+  <si>
+    <t>ARTSA-5169</t>
+  </si>
+  <si>
+    <t>POST_Account_accountEdit_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5171</t>
+  </si>
+  <si>
+    <t>PUT_Account_accountEditId_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5174</t>
+  </si>
+  <si>
+    <t>POST_Account_accountUser_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5175</t>
+  </si>
+  <si>
+    <t>ARTSA-5176</t>
+  </si>
+  <si>
+    <t>GET_Account_accountUserId_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST_Account_accountUnique_spec.js </t>
+  </si>
+  <si>
+    <t>ARTSA-5177</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,14 +1323,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1287,9 +1351,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1301,13 +1364,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1588,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,11 +1668,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1635,258 +1697,318 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" t="s">
+        <v>412</v>
+      </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>402</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>417</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>413</v>
+      </c>
+      <c r="C10" t="s">
+        <v>414</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>407</v>
+      </c>
+      <c r="C12" t="s">
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>398</v>
+      </c>
+      <c r="C14" t="s">
+        <v>399</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>423</v>
+      </c>
+      <c r="C15" t="s">
+        <v>422</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>420</v>
+      </c>
+      <c r="C16" t="s">
+        <v>421</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>390</v>
+      </c>
+      <c r="C17" t="s">
+        <v>415</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>391</v>
+      </c>
+      <c r="C18" t="s">
+        <v>397</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>392</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1911,138 +2033,138 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -2067,310 +2189,313 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>405</v>
+      </c>
+      <c r="C43" t="s">
+        <v>406</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="D50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -2395,384 +2520,384 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="D64" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="D66" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="D67" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="D78" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E78" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="D83" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -2797,238 +2922,238 @@
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E85" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D87" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E87" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D88" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E88" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E89" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E90" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E91" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" t="s">
         <v>201</v>
       </c>
-      <c r="D93" t="s">
-        <v>209</v>
-      </c>
-      <c r="E93" t="s">
-        <v>210</v>
-      </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D94" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E97" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F97" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
+      <c r="D98" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -3053,126 +3178,126 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="D100" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E100" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E101" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="D102" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E102" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D103" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E103" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D104" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E104" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="D105" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E105" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E106" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="D107" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E107" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="D108" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E108" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
+      <c r="D109" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -3197,279 +3322,279 @@
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D111" t="s">
-        <v>239</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
+      </c>
+      <c r="E111" t="s">
+        <v>231</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D112" t="s">
-        <v>241</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="E112" t="s">
+        <v>233</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D114" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E114" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E116" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D117" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E117" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D118" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E118" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="D119" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E119" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="D120" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E120" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="D121" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E121" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E122" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D123" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E123" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="D124" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E124" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D125" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E125" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="D126" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E126" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="D127" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E127" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D128" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E128" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="D129" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E129" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="D130" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E130" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
+      <c r="D131" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -3494,60 +3619,60 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="D133" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="D134" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E134" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="D135" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="D136" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
+      <c r="D137" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
@@ -3572,96 +3697,96 @@
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="D139" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="D140" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E140" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="D141" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E141" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="D142" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E142" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E143" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="D144" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E144" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="D145" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E145" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
+      <c r="D146" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -3686,36 +3811,36 @@
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="D148" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="D149" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
+      <c r="D150" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -3740,325 +3865,325 @@
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C152" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C154" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D154" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C155" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D155" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C156" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D156" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C157" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D157" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C158" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D158" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C159" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D159" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C160" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D160" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E160" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C161" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D161" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E161" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E162" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C163" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D163" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E163" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E164" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D165" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E165" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C166" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D166" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E166" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C167" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D167" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E167" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C168" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D168" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E168" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D169" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E169" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
+      <c r="D170" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
@@ -4083,230 +4208,230 @@
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C172" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D172" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E172" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C173" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E173" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C174" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D174" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E174" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E175" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C176" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D176" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E176" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E177" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E178" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E179" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C180" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E180" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C181" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D181" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E181" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C182" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E182" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E183" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C184" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D184" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E184" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C185" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D185" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E185" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4314,7 +4439,7 @@
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -4354,10 +4479,7 @@
     <mergeCell ref="D146:F146"/>
     <mergeCell ref="D150:F150"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E111" r:id="rId1"/>
-    <hyperlink ref="E112" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
+++ b/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaguilar\Documents\GitHub\automation-test-framework\Attensity_REST_API\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="QA Automation Inventory List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="435">
   <si>
     <t>Account Service       </t>
   </si>
@@ -131,9 +126,6 @@
     <t>Alerts Service       </t>
   </si>
   <si>
-    <t>Q_API_TEST_Account Alerts_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5018</t>
   </si>
   <si>
@@ -143,9 +135,6 @@
     <t>https://discovernow.attensity.com/sidekick-alerts/rest/storedAlerts/accountAlerts</t>
   </si>
   <si>
-    <t>Q_API_TEST_TopicAlerts_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5016</t>
   </si>
   <si>
@@ -155,9 +144,6 @@
     <t>https://discovernow.attensity.com/sidekick-alerts/rest/storedAlerts/topicAlerts/{topicId}</t>
   </si>
   <si>
-    <t>Q_API_TEST_UserAlerts_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5017</t>
   </si>
   <si>
@@ -167,9 +153,6 @@
     <t>https://discovernow.attensity.com/sidekick-alerts/rest/storedAlerts/userAlerts</t>
   </si>
   <si>
-    <t>Q_API_TEST_AllAlerts_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5020</t>
   </si>
   <si>
@@ -179,9 +162,6 @@
     <t>https://discovernow.attensity.com/sidekick-alerts/rest/storedAlerts/allAlerts</t>
   </si>
   <si>
-    <t>Q_API_TEST_HideAlert_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5015</t>
   </si>
   <si>
@@ -191,9 +171,6 @@
     <t>https://discovernow.attensity.com/sidekick-alerts/rest/storedAlerts/hideAlert/{alertId}</t>
   </si>
   <si>
-    <t>Q_API_TEST_DismissAlert_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5021</t>
   </si>
   <si>
@@ -203,9 +180,6 @@
     <t>https://discovernow.attensity.com/sidekick-alerts/rest/storedAlerts/dismissAlert/{alertId}</t>
   </si>
   <si>
-    <t>Q_API_TEST_AlertTypes_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5019</t>
   </si>
   <si>
@@ -224,27 +198,18 @@
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/aggregate</t>
   </si>
   <si>
-    <t xml:space="preserve">Q_API_TEST_Details_spec.js </t>
-  </si>
-  <si>
     <t>query/details</t>
   </si>
   <si>
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/details </t>
   </si>
   <si>
-    <t>Q_API_TEST_TimeSeries_spec.js</t>
-  </si>
-  <si>
     <t>query/timeseries</t>
   </si>
   <si>
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/timeseries  </t>
   </si>
   <si>
-    <t>Q_API_TEST_TSRelevantArticles_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4997</t>
   </si>
   <si>
@@ -254,9 +219,6 @@
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/tsrelevantarticles</t>
   </si>
   <si>
-    <t>Q_API_TEST_FieldsMap_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4981</t>
   </si>
   <si>
@@ -266,9 +228,6 @@
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/feildsmap </t>
   </si>
   <si>
-    <t>Q_API_TEST_TopicMetrics_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4991</t>
   </si>
   <si>
@@ -284,9 +243,6 @@
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/detailsbyid </t>
   </si>
   <si>
-    <t>Q_API_TEST_Volatility_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5001</t>
   </si>
   <si>
@@ -296,9 +252,6 @@
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/volatility</t>
   </si>
   <si>
-    <t>Q_API_TEST_EntitySentiment_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4980</t>
   </si>
   <si>
@@ -308,9 +261,6 @@
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/entitysentiment </t>
   </si>
   <si>
-    <t>Q_API_TEST_Clusters_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4978</t>
   </si>
   <si>
@@ -320,9 +270,6 @@
     <t>https://discovernow.attensity.com/sidekick-articles-qx/rest/query/clusters  </t>
   </si>
   <si>
-    <t>Q_API_TEST_Trends_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4996</t>
   </si>
   <si>
@@ -554,99 +501,42 @@
     <t>Dashboard Service       </t>
   </si>
   <si>
-    <t>Q_API_TEST_GET_ TopicDashboards_spec.js</t>
-  </si>
-  <si>
-    <t>ARTSA-4260</t>
-  </si>
-  <si>
     <t>topic-dashboards/{topicid}</t>
   </si>
   <si>
     <t>https://discovernow.attensity.com/sidekick-dashboard/rest/dashboards/topic-dashboards/{topicid}</t>
   </si>
   <si>
-    <t>Q_API_TEST_POST_TopicDashboard_spec.js</t>
-  </si>
-  <si>
-    <t>ARTSA-3835</t>
-  </si>
-  <si>
-    <t>Q_API_TEST_DashboardDelete_spec.js</t>
-  </si>
-  <si>
-    <t>ARTSA-3838</t>
-  </si>
-  <si>
-    <t>Q_API_TEST_GET_DashboardTemplates_spec.js</t>
-  </si>
-  <si>
-    <t>ARTSA-3834</t>
-  </si>
-  <si>
     <t>templates</t>
   </si>
   <si>
     <t>https://discovernow.attensity.com/sidekick-dashboard/rest/dashboards/templates</t>
   </si>
   <si>
-    <t>Q_API_TEST_POST_DashboardTemplates_spec.js</t>
-  </si>
-  <si>
-    <t>ARTSA-3836</t>
-  </si>
-  <si>
-    <t>Q_API_TEST_DashboardTemplateDelete_spec.js</t>
-  </si>
-  <si>
-    <t>Q_API_TEST_Dashboards_spec.js</t>
-  </si>
-  <si>
-    <t>ARTSA-3833</t>
-  </si>
-  <si>
     <t>&lt;nothing&gt;</t>
   </si>
   <si>
     <t>https://discovernow.attensity.com/sidekick-dashboard/rest/dashboards</t>
   </si>
   <si>
-    <t>Q_API_TEST_DashboardsIncludeWidgets_spec.js</t>
-  </si>
-  <si>
-    <t>ARTSA-4270</t>
-  </si>
-  <si>
     <t>includeWidgets</t>
   </si>
   <si>
     <t>https://discovernow.attensity.com/sidekick-dashboard/rest/dashboards/includeWidgets</t>
   </si>
   <si>
-    <t>Q_API_TEST_DashboardId_spec.js</t>
-  </si>
-  <si>
     <t>{dbid}</t>
   </si>
   <si>
     <t>https://discovernow.attensity.com/sidekick-dashboard/rest/dashboards/{dbid}</t>
   </si>
   <si>
-    <t>Q_API_TEST_Dashboard_spec.js</t>
-  </si>
-  <si>
     <t>multiple</t>
   </si>
   <si>
     <t>https://discovernow.attensity.com/sidekick-dashboard/rest/dashboards/multiple</t>
   </si>
   <si>
-    <t xml:space="preserve"> Q_API_TEST_DashboardDelete_spec.js</t>
-  </si>
-  <si>
-    <t>ARTSA-3837</t>
-  </si>
-  <si>
     <t>svg2img</t>
   </si>
   <si>
@@ -887,9 +777,6 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/topicwithtags</t>
   </si>
   <si>
-    <t>Q_API_TEST_TopicReport_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5012</t>
   </si>
   <si>
@@ -899,9 +786,6 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/topicreport</t>
   </si>
   <si>
-    <t>Q_API_TEST_GET_TopicID_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5010</t>
   </si>
   <si>
@@ -911,9 +795,6 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/{id}</t>
   </si>
   <si>
-    <t>Q_API_TEST_TopicAuditTrail_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4987</t>
   </si>
   <si>
@@ -923,30 +804,18 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/topicAudit/{id}</t>
   </si>
   <si>
-    <t>Q_API_TEST_TopicEdit_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4989</t>
   </si>
   <si>
     <t>topic</t>
   </si>
   <si>
-    <t>Q_API_TEST_PUT_TopicID_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5011</t>
   </si>
   <si>
-    <t>Q_API_TEST_TopicDelete_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4988</t>
   </si>
   <si>
-    <t>Q_API_TEST_TopicSanityChecker_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4994</t>
   </si>
   <si>
@@ -956,9 +825,6 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/sanity</t>
   </si>
   <si>
-    <t>Q_API_TEST_TopicNameUnique_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-4993</t>
   </si>
   <si>
@@ -974,9 +840,6 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/topic_customds/{id}</t>
   </si>
   <si>
-    <t>Q_API_TEST_UpdateTopicAlert_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5013</t>
   </si>
   <si>
@@ -992,9 +855,6 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/alerts/{id}</t>
   </si>
   <si>
-    <t>Q_API_TEST_DataSourceUI_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5007</t>
   </si>
   <si>
@@ -1004,9 +864,6 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/datasources_ui</t>
   </si>
   <si>
-    <t>Q_API_TEST_GET_TOPICDataSource_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5008</t>
   </si>
   <si>
@@ -1016,9 +873,6 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/datasources</t>
   </si>
   <si>
-    <t>Q_API_TEST_GET_TOPICDataSourceID_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5009</t>
   </si>
   <si>
@@ -1028,15 +882,9 @@
     <t>https://discovernow.attensity.com/sidekick-topic/rest/topic/datasources/{id}</t>
   </si>
   <si>
-    <t xml:space="preserve">Q_API_TEST_CreateDatasource_spec.js </t>
-  </si>
-  <si>
     <t>ARTSA-5005</t>
   </si>
   <si>
-    <t>Q_API_TEST_DataSourceDelete_spec.js</t>
-  </si>
-  <si>
     <t>ARTSA-5006</t>
   </si>
   <si>
@@ -1305,13 +1153,184 @@
   </si>
   <si>
     <t>ARTSA-5177</t>
+  </si>
+  <si>
+    <t>PUT_Alerts_hideAlert_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Topic_topicAlerts_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Alerts_accountUser_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Alerts_accountAlerts_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Alerts_alertTypes_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Alerts_allAlerts_spec.js</t>
+  </si>
+  <si>
+    <t>PUT_Alerts_dismissAlert_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Articles_fieldsMap_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Articles_topicMetrics_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-4965</t>
+  </si>
+  <si>
+    <t>ARTSA-4979</t>
+  </si>
+  <si>
+    <t>POST_Articles_details_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Articles_timeSeries_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-4986</t>
+  </si>
+  <si>
+    <t>POST_Articles_tsRelevantArticles_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Articles_volatility_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Articles_entitySentiment_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Articles_clusters_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Articles_trends_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5183</t>
+  </si>
+  <si>
+    <t>GET_Dashboard_topicDashboardId_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5184</t>
+  </si>
+  <si>
+    <t>ARTSA-5185</t>
+  </si>
+  <si>
+    <t>GET_Dashboard_dashboardTemplates_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Dashboard_dashboardTemplates_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5186</t>
+  </si>
+  <si>
+    <t>DELETE_Dashboard_dashboardTemplate_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5187</t>
+  </si>
+  <si>
+    <t>GET_Dashboard_dashboards_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5189</t>
+  </si>
+  <si>
+    <t>GET_Dashboard_dashboardsIncludeWidgets_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5190</t>
+  </si>
+  <si>
+    <t>GET_Dashboard_dashboardId_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5191</t>
+  </si>
+  <si>
+    <t>POST_Dashboard_createDashboard_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5192</t>
+  </si>
+  <si>
+    <t>DELETE_Dashboard_topicDashboardId_spec.js</t>
+  </si>
+  <si>
+    <t>DELETE_dashboardId_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5193</t>
+  </si>
+  <si>
+    <t>POST_Dashboard_topicDashboardId_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5194</t>
+  </si>
+  <si>
+    <t>GET_Topic_topicReport_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Topic_topicId_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Topic_topicAuditTrail_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Topic_topicEdit_spec.js</t>
+  </si>
+  <si>
+    <t>PUT_Topic_topicId_spec.js</t>
+  </si>
+  <si>
+    <t>DELETE_topicId_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Topic_topicSanityChecker_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Topic_topicNameUnique_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Topic_updateTopicAlert_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Topic_dataSourceUI_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Topic_topicDataSource_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Topic_topicDataSourceId_spec.js</t>
+  </si>
+  <si>
+    <t>POST_Topic_createDatasource_spec.js</t>
+  </si>
+  <si>
+    <t>DELETE_Topic_dataSource_spec.js</t>
+  </si>
+  <si>
+    <t>GET_Topic_topicCustomDSId_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5121</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,10 +1383,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,7 +1447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1463,7 +1482,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1640,21 +1659,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
@@ -1664,17 +1683,17 @@
     <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1694,13 +1713,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1712,13 +1731,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1730,13 +1749,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1748,13 +1767,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="C6" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1766,31 +1785,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1802,13 +1821,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1820,13 +1839,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1838,13 +1857,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1856,13 +1875,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1874,13 +1893,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1892,13 +1911,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1910,13 +1929,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C15" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -1928,13 +1947,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -1946,13 +1965,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -1964,13 +1983,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
@@ -1982,13 +2001,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>419</v>
+        <v>343</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -2000,17 +2019,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2030,143 +2049,143 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>384</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>382</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2186,318 +2205,327 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>329</v>
+      </c>
+      <c r="C31" t="s">
+        <v>387</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>389</v>
+      </c>
+      <c r="C32" t="s">
+        <v>388</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>390</v>
+      </c>
+      <c r="C33" t="s">
+        <v>391</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>394</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>395</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>396</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -2517,389 +2545,389 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="D68" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2919,243 +2947,243 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>397</v>
       </c>
       <c r="D85" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>399</v>
       </c>
       <c r="D87" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>401</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="D88" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>402</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>403</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E89" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>404</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>406</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>407</v>
       </c>
       <c r="D91" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E91" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>408</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>410</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>411</v>
       </c>
       <c r="D93" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E93" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>412</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>413</v>
       </c>
       <c r="D94" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E94" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>416</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="E97" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D98" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -3175,131 +3203,131 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="D100" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="E100" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="D101" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E101" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="D102" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="D103" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="E103" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="D104" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E104" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="D105" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="D106" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="E106" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="D107" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="E107" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="3"/>
       <c r="D108" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="E108" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D109" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -3319,284 +3347,284 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="D111" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E111" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E112" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="3"/>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="D114" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="E114" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="D115" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="E115" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="F115" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="D116" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="E116" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="D117" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E117" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="F117" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="D118" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="E118" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="3"/>
       <c r="D119" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="3"/>
       <c r="D120" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="E120" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="F120" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="3"/>
       <c r="D121" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="D122" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="D123" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="3"/>
       <c r="D124" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="D125" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="3"/>
       <c r="D126" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="3"/>
       <c r="D127" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F127" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="D128" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="3"/>
       <c r="D129" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="3"/>
       <c r="D130" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="F130" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D131" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -3616,65 +3644,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="3"/>
       <c r="D133" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E133" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="F133" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="3"/>
       <c r="D134" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="3"/>
       <c r="D135" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="E135" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="F135" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="3"/>
       <c r="D136" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="E136" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D137" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -3694,101 +3722,101 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="3"/>
       <c r="D139" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="3"/>
       <c r="D140" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F140" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="3"/>
       <c r="D141" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
       <c r="D142" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="3"/>
       <c r="D143" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="3"/>
       <c r="D144" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="3"/>
       <c r="D145" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F145" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D146" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -3808,41 +3836,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="3"/>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="E148" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="F148" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="3"/>
       <c r="D149" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="E149" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="F149" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D150" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -3862,330 +3890,330 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="E152" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="F152" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E153" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="C154" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="D154" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="E154" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="F154" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
-        <v>291</v>
+        <v>420</v>
       </c>
       <c r="C155" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="D155" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="E155" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="F155" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="C156" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D156" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="E156" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>422</v>
       </c>
       <c r="C157" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="D157" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="E157" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="C158" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D158" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="E158" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="F158" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
       <c r="C159" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="D159" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="E159" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="C160" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="D160" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="C161" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="D161" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>433</v>
       </c>
       <c r="C162" t="s">
-        <v>40</v>
+        <v>434</v>
       </c>
       <c r="D162" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="F162" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
-        <v>316</v>
+        <v>427</v>
       </c>
       <c r="C163" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="D163" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F164" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="C165" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="D165" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="F165" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="C166" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="D166" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="F166" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="D167" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F167" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="C168" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D168" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="C169" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="D169" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="F169" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D170" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -4205,246 +4233,246 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="C172" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="D172" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="E172" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="F172" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="C173" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="D173" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="E173" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="F173" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C174" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="D174" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="E174" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="E175" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="C176" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="D176" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="E176" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="F176" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="E177" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="F177" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="E178" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="F178" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="E179" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="F179" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="D180" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="E180" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="C181" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="D181" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="E181" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="F181" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="C182" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="E182" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="E183" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="F183" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="C184" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="D184" t="s">
         <v>27</v>
       </c>
       <c r="E184" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="F184" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="C185" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="D185" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="E185" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="F185" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="1" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>

--- a/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
+++ b/Attensity_REST_API/DiscoverNow Endpoints -- QA Automation Inventory List_.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Google Drive\Attensity\gitHub\automation-test-framework\Attensity_REST_API\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="QA Automation Inventory List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="449">
   <si>
     <t>Account Service       </t>
   </si>
@@ -1324,13 +1329,55 @@
   </si>
   <si>
     <t>ARTSA-5121</t>
+  </si>
+  <si>
+    <t>POST_Articles_detailsById_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5216</t>
+  </si>
+  <si>
+    <t>POST_Articles_trendsAndStdDev_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5217</t>
+  </si>
+  <si>
+    <t>POST_Articles_hideArticle_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5218</t>
+  </si>
+  <si>
+    <t>POST_Articles_getHiddenArticles_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5219</t>
+  </si>
+  <si>
+    <t>GET_Articles_loadSourceFields_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5220</t>
+  </si>
+  <si>
+    <t>GET_Articles_getAllFields_spec.js</t>
+  </si>
+  <si>
+    <t>ARTSA-5222</t>
+  </si>
+  <si>
+    <t>ARTSA-5223</t>
+  </si>
+  <si>
+    <t>GET_Topic_topicAlertId_spec.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,6 +1389,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1370,10 +1425,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1384,11 +1440,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1447,7 +1505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1482,7 +1540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1659,41 +1717,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="B133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>344</v>
@@ -1731,7 +1789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>346</v>
@@ -1749,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>362</v>
@@ -1767,7 +1825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>360</v>
@@ -1785,7 +1843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>353</v>
@@ -1803,7 +1861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>367</v>
@@ -1821,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>369</v>
@@ -1839,7 +1897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>364</v>
@@ -1857,7 +1915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>376</v>
@@ -1875,7 +1933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>358</v>
@@ -1893,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>351</v>
@@ -1911,7 +1969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>349</v>
@@ -1929,7 +1987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>374</v>
@@ -1947,7 +2005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>371</v>
@@ -1965,7 +2023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>341</v>
@@ -1983,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>342</v>
@@ -2001,7 +2059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>343</v>
@@ -2019,17 +2077,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>381</v>
@@ -2067,7 +2125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>379</v>
@@ -2085,7 +2143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>380</v>
@@ -2103,7 +2161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>383</v>
@@ -2121,7 +2179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>378</v>
@@ -2139,7 +2197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>384</v>
@@ -2157,7 +2215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>382</v>
@@ -2175,17 +2233,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2205,7 +2263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>329</v>
@@ -2223,7 +2281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>389</v>
@@ -2241,7 +2299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>390</v>
@@ -2259,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>392</v>
@@ -2277,7 +2335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>385</v>
@@ -2295,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>386</v>
@@ -2313,9 +2371,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>16</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
+        <v>435</v>
+      </c>
+      <c r="C37" t="s">
+        <v>436</v>
       </c>
       <c r="D37" t="s">
         <v>72</v>
@@ -2327,7 +2389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>393</v>
@@ -2345,7 +2407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>394</v>
@@ -2363,7 +2425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>395</v>
@@ -2381,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>396</v>
@@ -2399,9 +2461,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>16</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" t="s">
+        <v>438</v>
       </c>
       <c r="D42" t="s">
         <v>86</v>
@@ -2413,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>356</v>
@@ -2431,10 +2497,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C44" t="s">
+        <v>440</v>
+      </c>
       <c r="D44" t="s">
         <v>90</v>
       </c>
@@ -2445,10 +2517,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B45" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" t="s">
+        <v>442</v>
+      </c>
       <c r="D45" t="s">
         <v>92</v>
       </c>
@@ -2459,7 +2537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2473,10 +2551,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B47" t="s">
+        <v>443</v>
+      </c>
+      <c r="C47" t="s">
+        <v>444</v>
+      </c>
       <c r="D47" t="s">
         <v>96</v>
       </c>
@@ -2487,7 +2571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2501,10 +2585,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B49" t="s">
+        <v>445</v>
+      </c>
+      <c r="C49" t="s">
+        <v>446</v>
+      </c>
       <c r="D49" t="s">
         <v>100</v>
       </c>
@@ -2515,17 +2605,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -2545,7 +2635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="D52" t="s">
         <v>103</v>
@@ -2557,7 +2647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="D53" t="s">
         <v>105</v>
@@ -2569,7 +2659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="D54" t="s">
         <v>106</v>
@@ -2581,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="D55" t="s">
         <v>106</v>
@@ -2593,7 +2683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="D56" t="s">
         <v>109</v>
@@ -2605,7 +2695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="D57" t="s">
         <v>111</v>
@@ -2617,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="D58" t="s">
         <v>113</v>
@@ -2629,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="D59" t="s">
         <v>115</v>
@@ -2641,7 +2731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="D60" t="s">
         <v>117</v>
@@ -2653,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="D61" t="s">
         <v>119</v>
@@ -2665,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="D62" t="s">
         <v>121</v>
@@ -2677,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="D63" t="s">
         <v>123</v>
@@ -2689,7 +2779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="D64" t="s">
         <v>125</v>
@@ -2701,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="D65" t="s">
         <v>125</v>
@@ -2713,7 +2803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="D66" t="s">
         <v>125</v>
@@ -2725,7 +2815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="D67" t="s">
         <v>129</v>
@@ -2737,7 +2827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="D68" t="s">
         <v>131</v>
@@ -2749,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="D69" t="s">
         <v>133</v>
@@ -2761,7 +2851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="D70" t="s">
         <v>135</v>
@@ -2773,7 +2863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="D71" t="s">
         <v>135</v>
@@ -2785,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="D72" t="s">
         <v>138</v>
@@ -2797,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="D73" t="s">
         <v>140</v>
@@ -2809,7 +2899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="D74" t="s">
         <v>142</v>
@@ -2821,7 +2911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="D75" t="s">
         <v>142</v>
@@ -2833,7 +2923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="D76" t="s">
         <v>145</v>
@@ -2845,7 +2935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="D77" t="s">
         <v>147</v>
@@ -2857,7 +2947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="D78" t="s">
         <v>149</v>
@@ -2869,7 +2959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="D79" t="s">
         <v>151</v>
@@ -2881,7 +2971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="D80" t="s">
         <v>153</v>
@@ -2893,7 +2983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="D81" t="s">
         <v>155</v>
@@ -2905,7 +2995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="D82" t="s">
         <v>157</v>
@@ -2917,17 +3007,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2947,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>398</v>
@@ -2965,7 +3055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>417</v>
@@ -2983,7 +3073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>414</v>
@@ -3001,7 +3091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>401</v>
@@ -3019,7 +3109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
         <v>402</v>
@@ -3037,7 +3127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>404</v>
@@ -3055,7 +3145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>406</v>
@@ -3073,7 +3163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>408</v>
@@ -3091,7 +3181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>410</v>
@@ -3109,7 +3199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>412</v>
@@ -3127,7 +3217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>16</v>
       </c>
@@ -3141,7 +3231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>415</v>
@@ -3159,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
@@ -3173,17 +3263,17 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -3203,7 +3293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="D100" t="s">
         <v>176</v>
@@ -3215,7 +3305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="D101" t="s">
         <v>178</v>
@@ -3227,7 +3317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="D102" t="s">
         <v>180</v>
@@ -3239,7 +3329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>340</v>
@@ -3254,7 +3344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>339</v>
@@ -3269,7 +3359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="D105" t="s">
         <v>186</v>
@@ -3281,7 +3371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="D106" t="s">
         <v>188</v>
@@ -3293,7 +3383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="D107" t="s">
         <v>190</v>
@@ -3305,7 +3395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="D108" t="s">
         <v>192</v>
@@ -3317,17 +3407,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
         <v>334</v>
@@ -3362,7 +3452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
         <v>335</v>
@@ -3377,7 +3467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="D113" t="s">
         <v>197</v>
@@ -3389,7 +3479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
         <v>336</v>
@@ -3404,7 +3494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="D115" t="s">
         <v>199</v>
@@ -3416,7 +3506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="D116" t="s">
         <v>199</v>
@@ -3428,7 +3518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
         <v>337</v>
@@ -3443,7 +3533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
         <v>338</v>
@@ -3458,7 +3548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="D119" t="s">
         <v>203</v>
@@ -3470,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="D120" t="s">
         <v>205</v>
@@ -3482,7 +3572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="D121" t="s">
         <v>205</v>
@@ -3494,7 +3584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
         <v>331</v>
@@ -3509,7 +3599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
         <v>330</v>
@@ -3524,7 +3614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="D124" t="s">
         <v>211</v>
@@ -3536,7 +3626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
         <v>333</v>
@@ -3551,7 +3641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="D126" t="s">
         <v>213</v>
@@ -3563,7 +3653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="D127" t="s">
         <v>213</v>
@@ -3575,7 +3665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
         <v>332</v>
@@ -3590,7 +3680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="D129" t="s">
         <v>215</v>
@@ -3602,7 +3692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="D130" t="s">
         <v>215</v>
@@ -3614,17 +3704,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -3644,7 +3734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="D133" t="s">
         <v>218</v>
@@ -3656,7 +3746,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="D134" t="s">
         <v>221</v>
@@ -3668,7 +3758,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="D135" t="s">
         <v>224</v>
@@ -3680,7 +3770,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="D136" t="s">
         <v>226</v>
@@ -3692,17 +3782,17 @@
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -3722,7 +3812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="D139" t="s">
         <v>229</v>
@@ -3734,7 +3824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="D140" t="s">
         <v>229</v>
@@ -3746,7 +3836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="D141" t="s">
         <v>231</v>
@@ -3758,7 +3848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="D142" t="s">
         <v>233</v>
@@ -3770,7 +3860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="D143" t="s">
         <v>235</v>
@@ -3782,7 +3872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="D144" t="s">
         <v>237</v>
@@ -3794,7 +3884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="D145" t="s">
         <v>239</v>
@@ -3806,17 +3896,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -3836,7 +3926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="D148" t="s">
         <v>242</v>
@@ -3848,7 +3938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="D149" t="s">
         <v>244</v>
@@ -3860,17 +3950,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -3890,7 +3980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
         <v>247</v>
@@ -3905,7 +3995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>16</v>
       </c>
@@ -3919,7 +4009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
         <v>419</v>
@@ -3937,7 +4027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
         <v>420</v>
@@ -3955,7 +4045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
         <v>421</v>
@@ -3973,7 +4063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
         <v>422</v>
@@ -3991,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
         <v>423</v>
@@ -4009,7 +4099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
         <v>424</v>
@@ -4027,7 +4117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
         <v>425</v>
@@ -4045,7 +4135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
         <v>426</v>
@@ -4063,7 +4153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
         <v>433</v>
@@ -4081,7 +4171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
         <v>427</v>
@@ -4099,21 +4189,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B164" t="s">
+        <v>448</v>
+      </c>
+      <c r="C164" t="s">
+        <v>447</v>
+      </c>
       <c r="D164" t="s">
         <v>276</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="6" t="s">
         <v>277</v>
       </c>
       <c r="F164" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
         <v>428</v>
@@ -4131,7 +4227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
         <v>429</v>
@@ -4149,7 +4245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
         <v>430</v>
@@ -4167,7 +4263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
         <v>431</v>
@@ -4185,7 +4281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
         <v>432</v>
@@ -4203,17 +4299,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
         <v>290</v>
@@ -4251,7 +4347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
         <v>294</v>
@@ -4269,7 +4365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
         <v>298</v>
@@ -4287,7 +4383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>16</v>
       </c>
@@ -4301,7 +4397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
         <v>300</v>
@@ -4319,7 +4415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>16</v>
       </c>
@@ -4333,7 +4429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>16</v>
       </c>
@@ -4347,7 +4443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>16</v>
       </c>
@@ -4361,7 +4457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
         <v>308</v>
@@ -4379,7 +4475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
         <v>312</v>
@@ -4397,7 +4493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
         <v>316</v>
@@ -4412,7 +4508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>16</v>
       </c>
@@ -4426,7 +4522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
         <v>321</v>
@@ -4444,7 +4540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
         <v>324</v>
@@ -4462,7 +4558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4472,7 +4568,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -4507,7 +4603,10 @@
     <mergeCell ref="D146:F146"/>
     <mergeCell ref="D150:F150"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E164" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>